--- a/uploads/VRCT Donee form.xlsx
+++ b/uploads/VRCT Donee form.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\VINESH rct\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8745"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8748"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>vineshrct@gmail.com</t>
   </si>
@@ -118,12 +113,18 @@
   <si>
     <t>Details of Help</t>
   </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>www.vineshrct.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +176,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -456,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,36 +484,168 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,24 +667,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -546,119 +676,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -701,7 +726,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -764,7 +789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -799,7 +824,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,31 +1001,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:J29"/>
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1012,7 +1037,7 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1024,7 +1049,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1036,7 +1061,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1048,7 +1073,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1060,7 +1085,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1072,7 +1097,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1084,7 +1109,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1096,7 +1121,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="5.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1108,396 +1133,390 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:10" ht="18" thickBot="1">
+      <c r="A10" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A11" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="59"/>
+    </row>
+    <row r="12" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="61"/>
+    </row>
+    <row r="13" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="22" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+    </row>
+    <row r="16" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A16" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-    </row>
-    <row r="17" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-    </row>
-    <row r="18" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A18" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
-    </row>
-    <row r="20" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+    </row>
+    <row r="19" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="68"/>
-    </row>
-    <row r="21" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
-    </row>
-    <row r="23" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="25" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
-    </row>
-    <row r="24" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="47"/>
+    </row>
+    <row r="24" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="25" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-    </row>
-    <row r="25" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+    </row>
+    <row r="25" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="25" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-    </row>
-    <row r="26" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+    </row>
+    <row r="26" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A26" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="28" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-    </row>
-    <row r="27" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="68"/>
+    </row>
+    <row r="27" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A27" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="50"/>
+    </row>
+    <row r="28" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="24"/>
-    </row>
-    <row r="29" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" ht="23.1" customHeight="1">
+      <c r="A29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-    </row>
-    <row r="30" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A30" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-    </row>
-    <row r="31" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A31" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="59"/>
-    </row>
-    <row r="32" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="51" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="53"/>
-    </row>
-    <row r="33" spans="1:10" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="1:10" ht="23.1" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="62"/>
-    </row>
-    <row r="34" spans="1:10" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" spans="1:10" ht="23.1" customHeight="1" thickBot="1">
+      <c r="A34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="54" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="56"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="70"/>
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="A20:D22"/>
-    <mergeCell ref="E20:J22"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="E18:J19"/>
+  <mergeCells count="41">
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="A10:J10"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A23:D23"/>
@@ -1510,15 +1529,40 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E13:J13"/>
     <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="E18:J19"/>
+    <mergeCell ref="A20:D22"/>
+    <mergeCell ref="E20:J22"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:J27"/>
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E33:J33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E34" r:id="rId1"/>
+    <hyperlink ref="E35" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>